--- a/DataCollection/AllData_raw_csv/20mmParameters.xlsx
+++ b/DataCollection/AllData_raw_csv/20mmParameters.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\AllData_raw_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564F0DCE-EF04-464F-96DE-CB9D05BBE803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2229D76C-2CE6-4D86-A008-ACD42C067BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19590" yWindow="1200" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
+    <workbookView xWindow="-25335" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="10mmTest10" sheetId="1" r:id="rId1"/>
     <sheet name="20mmTest10" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -420,9 +417,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -432,6 +426,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1783,16 +1780,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3898</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>201706</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>42583</xdr:rowOff>
+      <xdr:rowOff>80098</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1820,172 +1817,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Test10"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="F5">
-            <v>0</v>
-          </cell>
-          <cell r="G5">
-            <v>0.64120999999999995</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>-3.3333333333333361E-2</v>
-          </cell>
-          <cell r="G6">
-            <v>0.64433333333334986</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>-6.6666666666666721E-2</v>
-          </cell>
-          <cell r="G7">
-            <v>0.58833333333334537</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>-9.9999999999999936E-2</v>
-          </cell>
-          <cell r="G8">
-            <v>0.53599999999999248</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>0</v>
-          </cell>
-          <cell r="G9">
-            <v>0.69864000000000004</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>-6.8181818181818177E-2</v>
-          </cell>
-          <cell r="G10">
-            <v>0.67695454545454581</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>-0.14090909090909098</v>
-          </cell>
-          <cell r="G11">
-            <v>0.59399999999997988</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>0</v>
-          </cell>
-          <cell r="G12">
-            <v>0.68927000000000005</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>-2.7237354085603085E-2</v>
-          </cell>
-          <cell r="G13">
-            <v>0.72813618677045255</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>-5.8365758754863814E-2</v>
-          </cell>
-          <cell r="G14">
-            <v>0.68845525291827414</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>-0.12062256809338513</v>
-          </cell>
-          <cell r="G15">
-            <v>0.57850583657594257</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>0</v>
-          </cell>
-          <cell r="G16">
-            <v>0.70982999999999996</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>-6.0498220640569492E-2</v>
-          </cell>
-          <cell r="G17">
-            <v>0.72292170818518287</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>-9.964412811387903E-2</v>
-          </cell>
-          <cell r="G18">
-            <v>0.62056939501775332</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>-0.14590747330960857</v>
-          </cell>
-          <cell r="G19">
-            <v>0.57621708185052967</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>0</v>
-          </cell>
-          <cell r="G20">
-            <v>0.71596000000000004</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>-4.2704626334519671E-2</v>
-          </cell>
-          <cell r="G21">
-            <v>0.74334519572900604</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>-7.8291814946619312E-2</v>
-          </cell>
-          <cell r="G22">
-            <v>0.68138790035558827</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>-0.11743772241992885</v>
-          </cell>
-          <cell r="G23">
-            <v>0.61311743772240845</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2312,11 +2143,11 @@
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -3310,8 +3141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB9165-0AC4-4E02-9FE6-56899BB84B47}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3576,16 +3407,16 @@
       <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="30">
         <v>1.8329</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>-841.25</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>-2.9765999999999999</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <v>-73.956000000000003</v>
       </c>
       <c r="F8" s="8">
@@ -3599,16 +3430,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="31">
         <v>1.7966</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="31">
         <v>77.501999999999995</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="31">
         <v>41.11</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="32">
         <v>-78.972999999999999</v>
       </c>
       <c r="M8" s="26">
@@ -3622,16 +3453,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="34">
+      <c r="B9" s="33">
         <v>-26.149000000000001</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <v>-329.57</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <v>95.840999999999994</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="34">
         <v>-220.19</v>
       </c>
       <c r="F9" s="12">
@@ -3646,16 +3477,16 @@
         <f t="shared" si="1"/>
         <v>-7.9867499999999989</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="34">
         <v>-18.748000000000001</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="34">
         <v>-240.68</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="34">
         <v>270.58999999999997</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="35">
         <v>-201.52</v>
       </c>
       <c r="M9" s="27">
@@ -3669,16 +3500,16 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>20.027999999999999</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <v>114.79</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>114.95</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>-227.65</v>
       </c>
       <c r="F10" s="13">
@@ -3693,16 +3524,16 @@
         <f t="shared" si="1"/>
         <v>-19.158333333333331</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="37">
         <v>58.508000000000003</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="37">
         <v>345.88</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="37">
         <v>129.57</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="38">
         <v>-203.65</v>
       </c>
       <c r="M10" s="27">
@@ -3718,16 +3549,16 @@
       <c r="A11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="33">
         <v>2.1844999999999999</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="34">
         <v>-910.8</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="34">
         <v>5.7714999999999996</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>-193.11</v>
       </c>
       <c r="F11" s="12">
@@ -3764,16 +3595,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="34">
+      <c r="B12" s="33">
         <v>-60.94</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="34">
         <v>-2354.6</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="34">
         <v>168.87</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="35">
         <v>-281.02999999999997</v>
       </c>
       <c r="F12" s="12">
@@ -3811,16 +3642,16 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
-      <c r="B13" s="34">
+      <c r="B13" s="33">
         <v>-25.206</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="34">
         <v>-375.7</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="34">
         <v>210.12</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="35">
         <v>-284.70999999999998</v>
       </c>
       <c r="F13" s="12">
@@ -3860,16 +3691,16 @@
       <c r="A14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="30">
         <v>2.3146</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="31">
         <v>-96.174999999999997</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="31">
         <v>20.965</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <v>-138.41999999999999</v>
       </c>
       <c r="F14" s="9">
@@ -3883,16 +3714,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="30">
         <v>2.2915999999999999</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="31">
         <v>811.64</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="31">
         <v>-36.811</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="32">
         <v>-132.66999999999999</v>
       </c>
       <c r="M14" s="26">
@@ -3906,16 +3737,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="34">
+      <c r="B15" s="33">
         <v>41.417000000000002</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="34">
         <v>829.62</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <v>-220.88</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <v>-294.95</v>
       </c>
       <c r="F15" s="12">
@@ -3930,16 +3761,16 @@
         <f t="shared" si="1"/>
         <v>10.479708029197058</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="33">
         <v>-124.31</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="34">
         <v>-2662.7</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="34">
         <v>907.22</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="35">
         <v>-226.89</v>
       </c>
       <c r="M15" s="27">
@@ -3953,16 +3784,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
-      <c r="B16" s="34">
+      <c r="B16" s="33">
         <v>20.596</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="34">
         <v>233.15</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="34">
         <v>187.15</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="35">
         <v>-294.76</v>
       </c>
       <c r="F16" s="12">
@@ -3977,16 +3808,16 @@
         <f t="shared" si="1"/>
         <v>-15.026642335766418</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="33">
         <v>35.29</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="34">
         <v>416.63</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="34">
         <v>73.953999999999994</v>
       </c>
-      <c r="L16" s="36">
+      <c r="L16" s="35">
         <v>-285.04000000000002</v>
       </c>
       <c r="M16" s="27">
@@ -4000,16 +3831,16 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
-      <c r="B17" s="37">
+      <c r="B17" s="36">
         <v>-63.758000000000003</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="37">
         <v>-541.62</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="37">
         <v>273.35000000000002</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="38">
         <v>-298.25</v>
       </c>
       <c r="F17" s="13">
@@ -4024,16 +3855,16 @@
         <f t="shared" si="1"/>
         <v>-32.92171532846713</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="36">
         <v>27.135000000000002</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="37">
         <v>213.49</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="37">
         <v>147.08000000000001</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="38">
         <v>-286.63</v>
       </c>
       <c r="M17" s="28">
@@ -4049,16 +3880,16 @@
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="33">
         <v>2.2906</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="34">
         <v>1009.5</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="34">
         <v>-36.643999999999998</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="35">
         <v>-162.54</v>
       </c>
       <c r="F18" s="12">
@@ -4072,16 +3903,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="30">
         <v>2.2618999999999998</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="31">
         <v>-1335.1</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="31">
         <v>-5.7336999999999998</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="32">
         <v>-153.32</v>
       </c>
       <c r="M18" s="27">
@@ -4097,16 +3928,16 @@
       <c r="A19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="33">
         <v>-19.529</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="34">
         <v>-235.66</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="34">
         <v>556.80999999999995</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="35">
         <v>-290.29000000000002</v>
       </c>
       <c r="F19" s="12">
@@ -4121,16 +3952,16 @@
         <f t="shared" si="1"/>
         <v>-50.364723618090373</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="33">
         <v>8.4263999999999992</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="34">
         <v>73.897000000000006</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="34">
         <v>42.28</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="35">
         <v>-315.08</v>
       </c>
       <c r="M19" s="27">
@@ -4144,16 +3975,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="34">
+      <c r="B20" s="33">
         <v>32.628</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="34">
         <v>263.19</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="34">
         <v>25.510999999999999</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="35">
         <v>-341.22</v>
       </c>
       <c r="F20" s="12">
@@ -4168,16 +3999,16 @@
         <f t="shared" si="1"/>
         <v>-3.0126055276381885</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="33">
         <v>80.347999999999999</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="34">
         <v>667.72</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="34">
         <v>82.83</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="35">
         <v>-309.61</v>
       </c>
       <c r="M20" s="27">
@@ -4191,16 +4022,16 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
-      <c r="B21" s="37">
+      <c r="B21" s="36">
         <v>28.164000000000001</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="37">
         <v>153.84</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="37">
         <v>261.05</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="38">
         <v>-309.38</v>
       </c>
       <c r="F21" s="13">
@@ -4215,16 +4046,16 @@
         <f t="shared" si="1"/>
         <v>-45.913316582914575</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="36">
         <v>63.173000000000002</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="37">
         <v>353.29</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="37">
         <v>130.25</v>
       </c>
-      <c r="L21" s="39">
+      <c r="L21" s="38">
         <v>-298.29000000000002</v>
       </c>
       <c r="M21" s="28">

--- a/DataCollection/AllData_raw_csv/20mmParameters.xlsx
+++ b/DataCollection/AllData_raw_csv/20mmParameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\AllData_raw_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2229D76C-2CE6-4D86-A008-ACD42C067BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8C1C55-68D1-4EA1-AB18-95E3FD77E110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25335" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77D8A100-45DA-4248-AA11-EEE2BEBFD1BC}"/>
   </bookViews>
   <sheets>
     <sheet name="10mmTest10" sheetId="1" r:id="rId1"/>
@@ -553,6 +553,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'20mmTest10'!$F$5:$F$7</c:f>
@@ -624,6 +638,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'20mmTest10'!$F$8:$F$10</c:f>
@@ -695,6 +723,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'20mmTest10'!$F$11:$F$13</c:f>
@@ -766,6 +808,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'20mmTest10'!$F$14:$F$17</c:f>
@@ -843,6 +899,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'20mmTest10'!$F$18:$F$21</c:f>
@@ -1780,16 +1850,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>3898</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>306456</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>80098</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>138076</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2118,8 +2188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401F6281-533D-4517-84CE-3CB45F536282}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3141,8 +3211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACB9165-0AC4-4E02-9FE6-56899BB84B47}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
